--- a/data/preprocessing/departure_patterns/7_days.xlsx
+++ b/data/preprocessing/departure_patterns/7_days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\routes\pattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB9668-7402-4C0D-9DB8-0C48FBC8BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9FCAF-371A-4F37-9804-107321C708E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B64BD-8D7C-457D-A147-3C4B2B03EF4D}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -489,44 +492,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -540,22 +546,25 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
@@ -566,25 +575,28 @@
       <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -592,16 +604,19 @@
       <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
@@ -609,25 +624,28 @@
       <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -638,22 +656,25 @@
       <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -667,19 +688,22 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -696,45 +720,51 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -742,54 +772,60 @@
       <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -797,54 +833,60 @@
       <c r="F12" s="11">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
       <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -852,17 +894,20 @@
       <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -870,379 +915,424 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
+      <c r="C18" s="1">
+        <v>1</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="11">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="11">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
       <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
       </c>
       <c r="F25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>1</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
       </c>
       <c r="F26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="11">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
+      <c r="C27" s="11">
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
+      <c r="E27" s="1">
+        <v>1</v>
       </c>
       <c r="F27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
         <v>4</v>
       </c>
-      <c r="B28" s="11">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/preprocessing/departure_patterns/7_days.xlsx
+++ b/data/preprocessing/departure_patterns/7_days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9FCAF-371A-4F37-9804-107321C708E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C063F9C1-1784-43DA-803E-B6EDD30F5948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
